--- a/biology/Neurosciences/Gyrus_frontal_moyen/Gyrus_frontal_moyen.xlsx
+++ b/biology/Neurosciences/Gyrus_frontal_moyen/Gyrus_frontal_moyen.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Le gyrus frontal moyen est un gyrus du lobe frontal du cortex cérébral, suivant une course parallèle au gyrus frontal supérieur. Il est limité en haut par le sillon frontal supérieur et en bas par le sillon frontal inférieur.
 Ce gyrus comporte deux segments :
